--- a/src/database/seeders/files/career_parallels.xlsx
+++ b/src/database/seeders/files/career_parallels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug-backend\src\database\seeders\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8658002-0F00-41E7-A543-BF2F3FCCB1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D4800B-E89E-402D-A2ED-798B6FADF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A469D99-6F21-4F50-95F9-40EC06808DD1}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,11 +449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7347466C-FD69-416F-95F3-6ABEA90288A8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,13 +592,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
